--- a/biology/Botanique/Simaba_guianensis/Simaba_guianensis.xlsx
+++ b/biology/Botanique/Simaba_guianensis/Simaba_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simaba guianensis est une espèce d'arbre néotropical, appartenant à la famille des Simaroubaceae. C'est l'espèce type du genre Simaba Aubl..
-En Guyane, on l'appelle Wasaku sili (Wayãpi)[3].
-On l'appelle Cajurana au Brésil[4].
+En Guyane, on l'appelle Wasaku sili (Wayãpi).
+On l'appelle Cajurana au Brésil.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'ayant fait l'objet de plusieurs études[5],[6],[7], la taxonomie de Simaba guianensis n'est pas encore résolue. On aurait probablement affaire à 4 sous-espèces[8] dont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'ayant fait l'objet de plusieurs études la taxonomie de Simaba guianensis n'est pas encore résolue. On aurait probablement affaire à 4 sous-espèces dont :
 Simaba guianensis subsp. ecaudata (Cronquíst) Cavalcante
 Simaba guianensis subsp. guianensis
-Simaba guianensis subsp. huberi Francesch. &amp; W.W. Thomas[9]
-S. guianensis subsp. ecaudata montre une grande diversité morphologique, et pourraient être séparé en trois groupes distincts, qui pourraient être considérés à terme comme de nouvelles espèces à part entière, de la même façon que Simaba guianensis subsp. polyphylla Cavalcante dont le nom correct est désormais Simaba polyphylla (Cavalcante) W. Thomas[10],[11].
+Simaba guianensis subsp. huberi Francesch. &amp; W.W. Thomas
+S. guianensis subsp. ecaudata montre une grande diversité morphologique, et pourraient être séparé en trois groupes distincts, qui pourraient être considérés à terme comme de nouvelles espèces à part entière, de la même façon que Simaba guianensis subsp. polyphylla Cavalcante dont le nom correct est désormais Simaba polyphylla (Cavalcante) W. Thomas,.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simaba guianensis est une espèce ligneuse à feuilles alternes, généralement composées imparipennées (rarement unifoliolée), à rachis comprenant un pétiole long de 2 à 25 cm. Les folioles ne sont jamais glanduleuses. L'inflorescence est généralement petite et peu ramifiée (contrairement à Simaba polyphylla qui a une inflorescence plus grande et généralement 5–11 paires de folioles). Les fleurs ne sont généralement pas disposées en cymes. Les pédicelles sont longs de 2–5 mm. Le filet des étamines porte 2 dents apicales, est séparé de l'appendice staminal sur 0,6–1,5 mm de long (ou au plus adné sur 0–0,2 mm), et est de taille au moins égale à celle de l'ovaire[8].
-Simaba guianensis subsp. huberi Francesch. &amp; W.W. Thomas est un arbuste ou sous-arbrisseau haut de 0,2–1(–3) m, à folioles généralement coriaces et souvent fortement révolutées. La partie libre de l'appendice staminal est long de 0,5–1,2 mm. Les fruits sont de couleur bordeaux[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simaba guianensis est une espèce ligneuse à feuilles alternes, généralement composées imparipennées (rarement unifoliolée), à rachis comprenant un pétiole long de 2 à 25 cm. Les folioles ne sont jamais glanduleuses. L'inflorescence est généralement petite et peu ramifiée (contrairement à Simaba polyphylla qui a une inflorescence plus grande et généralement 5–11 paires de folioles). Les fleurs ne sont généralement pas disposées en cymes. Les pédicelles sont longs de 2–5 mm. Le filet des étamines porte 2 dents apicales, est séparé de l'appendice staminal sur 0,6–1,5 mm de long (ou au plus adné sur 0–0,2 mm), et est de taille au moins égale à celle de l'ovaire.
+Simaba guianensis subsp. huberi Francesch. &amp; W.W. Thomas est un arbuste ou sous-arbrisseau haut de 0,2–1(–3) m, à folioles généralement coriaces et souvent fortement révolutées. La partie libre de l'appendice staminal est long de 0,5–1,2 mm. Les fruits sont de couleur bordeaux.
 Simaba guianensis subsp. guianensis est un arbuste ou un petit arbre, haut de 0,3–2(7) m.
 Ses feuilles alternes, longues de 8,5-30 cm (en comptant le pétiole et le foliole terminal), sont composées à 3-7 folioles.
 Le pétiole mesure (0,9)l0,8-9 cm de long.
@@ -564,7 +580,7 @@
 Les étamines ont des filets longs de 2,2 à 3,2 mm, avec un appendice staminal de 1,5 à 2,2 x 0,5 à 0,7 mm, distalement cilié.
 La partie du filet séparée de l'appendice staminal est longue de 0,6 à 2,1 mm.
 Le gynécée mesure 0,3-1 x 0,6-1,3 mm, est de forme aplatie à transversalement ellipsoïde, courtement tomenteux, avec un style long de 0,2-0,5 ou 1,3-1,5 mm, selon qu'il s'agit d'une fleur brévistylée ou longistylée.
-Les fruits sont des monocarpes drupacés, ellipsoïdes, lenticulaires, mesurant 1-1,6 x 0,6-1,1 cm, rugueux, de couleur jaune à orange à maturité, à l'épicarpe fin, charnu et parfois légèrement ailé[8],[11]
+Les fruits sont des monocarpes drupacés, ellipsoïdes, lenticulaires, mesurant 1-1,6 x 0,6-1,1 cm, rugueux, de couleur jaune à orange à maturité, à l'épicarpe fin, charnu et parfois légèrement ailé,
 Simaba guianensis subsp. ecaudata (Cronq.) Cavalcante (syn. : Simaba nigrescens Engl.) est un arbre haut de 6–18(30) m.
 Ses feuilles alternes pennées mesurent 9-22 cm de long (en comptant pétiole et foliole terminale).
 Le pétiole est long de 1,4-5,1 cm.
@@ -576,7 +592,7 @@
 Les pétales, généralement blancs, parfois jaune pâle, crème ou vert-rougeâtre, sont de forme étroitement elliptiques, mesurent (4,2)4,5-5,9 x 1,2-2,1 mm, et sont pubérulent sur la face abaxiale.
 Le filet des étamines est long de 3,6 à 5,6 mm, avec un appendice staminal long de 2,2 à 2,6 mm, et cilié distalement.
 Le gynécée, mesurant 0,3-0,8 x 0,8-1,3 mm, est pileux, avec un style long de 0,8-2,9 mm, lobé à l'apex.
-Le fruit est un monocarpe drupacé, de forme ellipsoïde, lenticulaire, mesurant 1,2-1,4 x 0,7-0,8 mm, de couleur orange à vert à maturité, à l'épicarpe fin et rugueux ou ± charnu et lisse, glabre ou parfois pubérulent[11].
+Le fruit est un monocarpe drupacé, de forme ellipsoïde, lenticulaire, mesurant 1,2-1,4 x 0,7-0,8 mm, de couleur orange à vert à maturité, à l'épicarpe fin et rugueux ou ± charnu et lisse, glabre ou parfois pubérulent.
 </t>
         </is>
       </c>
@@ -605,11 +621,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simaba guianensis est présent du Venezuela  au Brésil en passant par le Guyana, le Suriname, et la Guyane[8].
-Simaba guianensis subsp. guianensis est présent du Guyana au Brésil (Amapá) en passant par le Suriname, et la Guyane[8].
-Simaba guianensis subsp. huberi est endémique de l'État d'Amazonas au Venezuela[8],[9]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simaba guianensis est présent du Venezuela  au Brésil en passant par le Guyana, le Suriname, et la Guyane.
+Simaba guianensis subsp. guianensis est présent du Guyana au Brésil (Amapá) en passant par le Suriname, et la Guyane.
+Simaba guianensis subsp. huberi est endémique de l'État d'Amazonas au Venezuela,
 </t>
         </is>
       </c>
@@ -638,13 +656,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, Simaba guianensis subsp. ecaudata est présent dans les forêts de terre ferme, rare, et fleurit en août[11].
-Simaba guianensis subsp. guianensis est un arbuste ou petit arbre de sous-bois des forêts anciennes (dispersé mais assez commun en Guyane[3]), présent dans les forêts de plaine à 50-500 m d'altitude[8]. En Guyane, il est commun dans les forêts de terre ferme, fleurit en août, et fructifie en septembre-novembre[11].
-Simaba guianensis subsp. huberi est inféodé aux savanes sur sable blanc du Venezuela, autour de 100–200 m d'altitude[8],[9].
-Dans l'Amapá, Simaba guianensis est la plante hôte de diptères frugivores des familles des Tephritidae (Anastrepha fraterculus et A. parishi) et des Lonchaeidae (Neosilba bella, N. pseudozadolicha et N. zadolicha)[12].
-Le coq de roche dissémine des graines de Simaba guianensis en Guyane[13]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, Simaba guianensis subsp. ecaudata est présent dans les forêts de terre ferme, rare, et fleurit en août.
+Simaba guianensis subsp. guianensis est un arbuste ou petit arbre de sous-bois des forêts anciennes (dispersé mais assez commun en Guyane), présent dans les forêts de plaine à 50-500 m d'altitude. En Guyane, il est commun dans les forêts de terre ferme, fleurit en août, et fructifie en septembre-novembre.
+Simaba guianensis subsp. huberi est inféodé aux savanes sur sable blanc du Venezuela, autour de 100–200 m d'altitude,.
+Dans l'Amapá, Simaba guianensis est la plante hôte de diptères frugivores des familles des Tephritidae (Anastrepha fraterculus et A. parishi) et des Lonchaeidae (Neosilba bella, N. pseudozadolicha et N. zadolicha).
+Le coq de roche dissémine des graines de Simaba guianensis en Guyane
 </t>
         </is>
       </c>
@@ -673,9 +693,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Wayãpi tienent Simaba guianensis subsp. guianensis pour un poison très dangereux pour l'homme (ils le regroupent avec Bonafousia moretii)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Wayãpi tienent Simaba guianensis subsp. guianensis pour un poison très dangereux pour l'homme (ils le regroupent avec Bonafousia moretii).
 </t>
         </is>
       </c>
@@ -704,12 +726,14 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a isolé des alcaloïdes du type cathinone, ainsi que deux quassinoïdes dans Simaba guianensis subsp. guianensis : le 6-a-tigloyloxychaparrine, et le 6-a-tigloyloxychaparrinone, qui inhibent tous deux significativement la leucémie murine p 388 in vitro (NB : seul le premier est actif in vivo)[14].
-D'autres toxines doivent être présentes pour expliquer la grande toxicité que les Wayãpi confèrent à cette espèce[3].
-D'autres quassinoïdes ont été isolés dans des extraits de Simaba guianensis : la simalikalactone D, et la gutolactone qui est originale et présente une forte activité antipaludéenne[15], ainsi que des β-carbolines[16]
-On a aussi trouvé de la 9-methoxycanthin-6-one (cytotoxique) dans Simaba guianensis subesp. ecaudata[17].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a isolé des alcaloïdes du type cathinone, ainsi que deux quassinoïdes dans Simaba guianensis subsp. guianensis : le 6-a-tigloyloxychaparrine, et le 6-a-tigloyloxychaparrinone, qui inhibent tous deux significativement la leucémie murine p 388 in vitro (NB : seul le premier est actif in vivo).
+D'autres toxines doivent être présentes pour expliquer la grande toxicité que les Wayãpi confèrent à cette espèce.
+D'autres quassinoïdes ont été isolés dans des extraits de Simaba guianensis : la simalikalactone D, et la gutolactone qui est originale et présente une forte activité antipaludéenne, ainsi que des β-carbolines
+On a aussi trouvé de la 9-methoxycanthin-6-one (cytotoxique) dans Simaba guianensis subesp. ecaudata.
 </t>
         </is>
       </c>
@@ -738,9 +762,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[18] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « SIMABA Guianenſis. (Tabula 153.)
 Frutex octopedalis, trunco ramoſo, ramis ramis &amp; ramulis alternis; utriquè ſparſis. Folia alterna, ternata aut impari-pinnata. Foliolis duobus oppoſitis, utrinque coſtæ adnexis, ſubſeſſilibus, ovato-oblongis, acuminatis, acumine obtuſo, emarginato, glabris, rigidis, integerrimis, Flores corymboſi, axillares, &amp; ſuprà ramos ſparſi. Pedunculus florum ad baſim ſquamula munitur. Cortex ſubviridis, amarus. 
 Floret &amp; fructum fert Junio. 
@@ -755,7 +781,7 @@
 L'ovaire en muriſſant devient un fruit compoſé de quatre ou de cinq capsules jaunes, ovoïdes, ſéparées les unes des autres. L'écorce antérieure eſt mince, coriace, verte &amp; amère. 
 J'ai trouvé cet arbriſſeau dans les forêts d'Orapu, ſur des terreins qui étoient découverts ; il étoit en fleur &amp; en fruit dans le mois de Juin. »
 — Fusée-Aublet, 1775.
-Aublet a également décrit comme une espèce distincte Aruba guianensis, ultérieurement identifié comme synonyme de Simaba guianensis subsp. guianensis Aubl., et qu'il a décrit ainsi[19] : 
+Aublet a également décrit comme une espèce distincte Aruba guianensis, ultérieurement identifié comme synonyme de Simaba guianensis subsp. guianensis Aubl., et qu'il a décrit ainsi : 
 « ARUBA (Guianenſis). (Tabula 115.)
 Frutex ſexpedalis ; trunco ramoſo ; ramis alternis, undique iparſis. Folia alterna, ſimplicia, ſeſſilia autalternata ; foliolis tribus, petiolo communi adnexis, ovatis, oblongis, acumine emarginato, glabris, integerrimis, rigidis, undulatis. Flores racemoſi, axillares &amp; terminates. Bractæ binæ, ad baſim pedunculi florum ſingulorum. 
 Florebat fmctumque ferebat Julio, 
